--- a/biology/Médecine/Annexite/Annexite.xlsx
+++ b/biology/Médecine/Annexite/Annexite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'annexite est une inflammation des annexes de l'utérus, plus couramment appelée salpingo-ovarite.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Divers termes médicaux décrivent la même affection[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Divers termes médicaux décrivent la même affection :
 atteinte inflammatoire pelvienne (AIP)
 inflammation du pelvis
 inflammation pelvienne
@@ -576,11 +592,13 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'infection génitale à Chlamydia trachomatis ou à Neisseria gonorrhoeae peut conduire au développement d'une salpingo-ovarite, compromettant quant à elle les fonctions reproductrices, occasionnant des grossesses ectopiques et des infertilités tubaires par exemple.
-En l'absence de traitement adapté, ce sont 10 à 20 % des femmes porteuses de Chlamydia ou présentant une gonorrhée qui sont estimées à risque d'atteinte inflammatoire pelvienne (AIP)[2],[3].
-Après une AIP, les adhésions cicatricielles post-inflammatoires tubaires occasionnent une stérilité chez 8 % des femmes, une grossesse ectopique chez 9 % et des douleurs pelviennes chroniques chez 18 % d'entre elles[4].
+En l'absence de traitement adapté, ce sont 10 à 20 % des femmes porteuses de Chlamydia ou présentant une gonorrhée qui sont estimées à risque d'atteinte inflammatoire pelvienne (AIP),.
+Après une AIP, les adhésions cicatricielles post-inflammatoires tubaires occasionnent une stérilité chez 8 % des femmes, une grossesse ectopique chez 9 % et des douleurs pelviennes chroniques chez 18 % d'entre elles.
 </t>
         </is>
       </c>
@@ -610,6 +628,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -632,16 +652,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Signes fonctionnels
-Examen clinique
-Examens complémentaires</t>
-        </is>
-      </c>
+          <t>Prise en charge</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,10 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Prise en charge</t>
+          <t>Évolution et complications</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -690,36 +708,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Évolution et complications</t>
+          <t>Prévention</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Annexite</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Annexite</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Prévention</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
